--- a/InputData/fuels/FPIEBP/Fuel Prod Imp Exp Balancing Priorities.xlsx
+++ b/InputData/fuels/FPIEBP/Fuel Prod Imp Exp Balancing Priorities.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\fuels\FPIEBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energyinnovation.sharepoint.com/sites/EUEPSModeling/Shared Documents/InputData_Artelys/fuels/FPIEBP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4E0A33-3857-4E42-99DE-F3DBB58130FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{302722DF-41E9-4202-A6E2-D0050002C677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22958681-3CAB-451C-A91A-FF7B26272B0F}"/>
   <bookViews>
-    <workbookView xWindow="18705" yWindow="1695" windowWidth="19470" windowHeight="20340" xr2:uid="{B505BEC9-7B7D-48ED-A025-9B3B4252ED08}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" firstSheet="1" activeTab="2" xr2:uid="{CC8E8265-A233-4B9A-8CE0-B48402588607}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="FPIEBP" sheetId="2" r:id="rId2"/>
+    <sheet name="Explanations" sheetId="3" r:id="rId2"/>
+    <sheet name="FPIEBP" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +29,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>FPIEBP Fuel Production Import Export Balancing Priorities</t>
   </si>
@@ -43,7 +46,7 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>none needed</t>
+    <t>BAU Fuel Production Imports and Exports</t>
   </si>
   <si>
     <t>Notes</t>
@@ -61,15 +64,15 @@
     <t>in ways appropriate to each sector (such as by building type and building component in the Buildings Sector, etc.)</t>
   </si>
   <si>
+    <t>Therefore, we cannot alter BAU fuel consumption here.</t>
+  </si>
+  <si>
+    <t>The EPS takes in data for BAU fuel production, imports, and exports, but can only use data for two of those three terms</t>
+  </si>
+  <si>
     <t>for any given fuel.  It must calculate the third of these terms to ensure the equation above holds true.</t>
   </si>
   <si>
-    <t>Therefore, we cannot alter BAU fuel consumption here.</t>
-  </si>
-  <si>
-    <t>The EPS takes in data for BAU fuel production, imports, and exports, but can only use data for two of those three terms</t>
-  </si>
-  <si>
     <t>This variable specifies which of those terms will be calculated, rather than taken in as input data.</t>
   </si>
   <si>
@@ -91,18 +94,24 @@
     <t>the variable designated priority 3 will be altered.</t>
   </si>
   <si>
+    <t>Guidance on Setting Priorities</t>
+  </si>
+  <si>
     <t>Remember that we are setting which variable is calculated in the BAU case, which has nothing to do with policy effects.</t>
   </si>
   <si>
+    <t>The variable to be calculated should generally be the one for which:</t>
+  </si>
+  <si>
     <t>1. you have the lowest-quality (most uncertain) input data</t>
   </si>
   <si>
-    <t>The variable to be calculated should generally be the one for which:</t>
-  </si>
-  <si>
     <t>and</t>
   </si>
   <si>
+    <t>2. the magnitude is large enough to use as a balancing term</t>
+  </si>
+  <si>
     <t>Three examples may help illustrate:</t>
   </si>
   <si>
@@ -130,9 +139,6 @@
     <t>local demand).</t>
   </si>
   <si>
-    <t>2. the magnitude is large enough to use as a balancing term</t>
-  </si>
-  <si>
     <t>Example 3</t>
   </si>
   <si>
@@ -148,7 +154,16 @@
     <t>exceeding import/export capacity.  Only production has a magnitude suitable for use as a balancing term.</t>
   </si>
   <si>
-    <t>Guidance on Setting Priorities</t>
+    <t>Unit: dimensionless (priority)</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>imports</t>
+  </si>
+  <si>
+    <t>exports</t>
   </si>
   <si>
     <t>electricity (not used in this variable)</t>
@@ -157,6 +172,9 @@
     <t>hard coal</t>
   </si>
   <si>
+    <t>Since imports are bigger than production, they appear first in the merit order. Since imports are very high we assume exports appear in last position in the merit order</t>
+  </si>
+  <si>
     <t>natural gas</t>
   </si>
   <si>
@@ -175,9 +193,15 @@
     <t>biomass</t>
   </si>
   <si>
+    <t>Production is far bigger than imports and exports so we follow the 3rd example of the About page. Imports are also bigger than exports so they appear before exports in the merit order</t>
+  </si>
+  <si>
     <t>petroleum gasoline</t>
   </si>
   <si>
+    <t>For petroleum products EU has a big production capacity, so it is able to export. If the demand increases, the production will be able to be increased without affecting exports</t>
+  </si>
+  <si>
     <t>petroleum diesel</t>
   </si>
   <si>
@@ -199,6 +223,9 @@
     <t>lignite</t>
   </si>
   <si>
+    <t>Production is far bigger than imports and exports so we follow the 3rd example of the About page</t>
+  </si>
+  <si>
     <t>crude oil</t>
   </si>
   <si>
@@ -214,23 +241,14 @@
     <t>hydrogen</t>
   </si>
   <si>
-    <t>Unit: dimensionless (priority)</t>
-  </si>
-  <si>
-    <t>production</t>
-  </si>
-  <si>
-    <t>imports</t>
-  </si>
-  <si>
-    <t>exports</t>
+    <t>It is assumed that EU hydrogen production capacity will be reached quickly. Then imports will appear first in the merit order : if the demand is very high UE will need to increase its imports and if the demand is low, imports will be decreased</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,15 +265,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,14 +297,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -287,19 +332,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -315,6 +364,122 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>164367</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>69116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FCC3EFE-9927-498B-9196-C8D80AD1558C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="532667"/>
+          <a:ext cx="2270125" cy="825499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>351203</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>578445</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>84455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2" descr="Press Material">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D98031-A81C-4710-B624-2FA4A792E6A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4345353" y="288925"/>
+          <a:ext cx="3275242" cy="1268730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -613,543 +778,1479 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290315BF-FDD8-4070-97AB-AF459B926789}">
-  <dimension ref="A1:D53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C650108-6CB5-42CE-BF8B-6941D7A55C6C}">
+  <dimension ref="B11:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="10.81640625" style="2"/>
+    <col min="3" max="3" width="24.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.81640625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="10"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B43" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B45" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B54" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B56" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B57" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B59" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B60" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B61" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B62" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B63" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74588702-9A40-47F5-AE7B-0A1AF8CBBB43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5023F1D-2B5F-473B-9F7F-9C6FDE066FCA}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1EC4AA-4594-4036-A43A-43B7B051F9A5}">
   <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
+    <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="4" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B16" s="9">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
-        <v>3</v>
-      </c>
-      <c r="D9" s="9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9">
-        <v>3</v>
-      </c>
-      <c r="D10" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9">
-        <v>3</v>
-      </c>
-      <c r="D11" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9">
-        <v>3</v>
-      </c>
-      <c r="D12" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="9">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9">
-        <v>2</v>
-      </c>
-      <c r="D13" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9">
-        <v>3</v>
-      </c>
-      <c r="D14" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="9">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9">
-        <v>3</v>
-      </c>
-      <c r="D17" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="9">
-        <v>2</v>
-      </c>
-      <c r="C18" s="9">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="9">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9">
-        <v>3</v>
-      </c>
-      <c r="D19" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="9">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9">
-        <v>3</v>
-      </c>
-      <c r="D20" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="9">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9">
-        <v>3</v>
-      </c>
-      <c r="D21" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="9">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
+      <c r="B18" s="7">
+        <v>2</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3</v>
+      </c>
+      <c r="E22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B7204D-735C-4053-93B4-E4881FF06D4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F2F61ED-1529-4450-B4FA-08EDB0CDB047}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B42B22E8-0AC3-4084-8455-FA2B2AC65C69}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>